--- a/medicine/Médecine vétérinaire/Baaissa_Babelhadj/Baaissa_Babelhadj.xlsx
+++ b/medicine/Médecine vétérinaire/Baaissa_Babelhadj/Baaissa_Babelhadj.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Baaissa Babelhadj est un vétérinaire algérien qui a découvert l'encéphalopathie spongiforme du dromadaire.
 Il travaille dans le laboratoire de protection des écosystèmes en zones arides et semi-arides à l'Université Kasdi Merbah de Ouargla en Algérie.
-Les principaux centres d'intérêt de ce chercheur comprennent l'étude des maladies infectieuses et la performance de l'élevage des dromadaires[1].
+Les principaux centres d'intérêt de ce chercheur comprennent l'étude des maladies infectieuses et la performance de l'élevage des dromadaires.
 </t>
         </is>
       </c>
@@ -513,12 +525,14 @@
           <t>Ses travaux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Participant à la recherche Ability of gastric enzyme extract of adult camel to clot bovine milk[2]
-Participant à la recherche Fatty acids profile of the dromedary hump fat in Algeria (2015)[3]
-Participant à la recherche Impact of natural vegetation on some biochemical parameters of the Arabian camel (Camelus dromedarius) in Algeria (2016)[4]
-Approche morphozoométrique de chamelles (Camelus dromedarius L.) des populations algériennes Sahraoui et Targui (2017)[5]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Participant à la recherche Ability of gastric enzyme extract of adult camel to clot bovine milk
+Participant à la recherche Fatty acids profile of the dromedary hump fat in Algeria (2015)
+Participant à la recherche Impact of natural vegetation on some biochemical parameters of the Arabian camel (Camelus dromedarius) in Algeria (2016)
+Approche morphozoométrique de chamelles (Camelus dromedarius L.) des populations algériennes Sahraoui et Targui (2017)</t>
         </is>
       </c>
     </row>
